--- a/medicine/Sexualité et sexologie/Burlesque_Hall_of_Fame/Burlesque_Hall_of_Fame.xlsx
+++ b/medicine/Sexualité et sexologie/Burlesque_Hall_of_Fame/Burlesque_Hall_of_Fame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Burlesque Hall of Fame (BHOF), est le seul musée au monde consacré à l'histoire, à la préservation et à l'avenir de l'art du burlesque américain. Situé dans le quartier des arts de Las Vegas, au 1027 S Main st. #110[1], le BHOF est une destination touristique et une organisation éducative, à but non lucratif offrant des visites de sa vaste collection de costumes, souvenirs, accessoires et objets éphémères de l'apogée du burlesque à la pratique contemporaine[2]. Il propose aussi des cours individuels et par groupes de tous niveaux, y compris pour les débutants, des projections de films, un accès à la recherche pour les étudiants et les journalistes ainsi qu'une boutique de cadeaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Burlesque Hall of Fame (BHOF), est le seul musée au monde consacré à l'histoire, à la préservation et à l'avenir de l'art du burlesque américain. Situé dans le quartier des arts de Las Vegas, au 1027 S Main st. #110, le BHOF est une destination touristique et une organisation éducative, à but non lucratif offrant des visites de sa vaste collection de costumes, souvenirs, accessoires et objets éphémères de l'apogée du burlesque à la pratique contemporaine. Il propose aussi des cours individuels et par groupes de tous niveaux, y compris pour les débutants, des projections de films, un accès à la recherche pour les étudiants et les journalistes ainsi qu'une boutique de cadeaux.
 Anciennement connu sous le nom d’Exotic World, le musée a débuté avec la collection personnelle de l'artiste stripteaseuse et membre fondatrice de la Ligue des danseurs exotiques d'Amérique Jennie Lee. Après sa mort, en 1990, son amie et collègue artiste, Dixie Evans, créé le musée à Helendale, en Californie, et elle lance le concours Miss Exotic World, en 1990.
 En 2006, le Burlesque Hall of Fame déménage de Helendale à Las Vegas, pour s'établir comme une attraction touristique permanente et un espace d'exposition pour sa collection. Après avoir occupé pendant près de dix ans le bâtiment des arts d'urgence au cœur d'un centre ville de Las Vegas (en) revitalisé, le musée déménage, en 2018, dans le quartier des arts de Las Vegas.
 En 2019, ce concours de Miss Exotic World en est à sa 29e année  et s'est développé pour devenir le Burlesque Hall of Fame Weekender, une convention de quatre jours, organisée chaque année à Las Vegas qui comprend des cours, des ventes de produits, des visites de musées, des défilés de pin-ups et quatre nuits de spectacles.
@@ -514,13 +526,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La danseuse, à la retraite, Jennie Lee commence à collectionner des souvenirs burlesques alors qu'elle est propriétaire de la boîte de nuit Sassy Lassy à San Pedro, en Californie. Après que Lee ait été diagnostiquée d'un cancer du sein, elle et son mari s'installent dans une ferme de chèvres, abandonnée à Helendale, en Californie, située dans le désert de Mojave, à environ un tiers du trajet entre Los Angeles, en Californie et Las Vegas, au Nevada.
 Lee a l'intention de créer un musée du burlesque, de fonder une école de burlesque et de gérer des chambres d'hôtes et le site de la ferme a assez de place pour contenir sa collection croissante. Seul le musée est créé de son vivant.
 Après la mort de Jennie Lee, en 1990, Dixie Evans reprend la ferme et la transformée en Musée du burlesque du monde exotique, avec l'aide du veuf de Lee, Charlie Arroyo. Les souvenirs de Lee constituent le cœur de la collection, mais des gens du monde entier commencent rapidement à faire des dons à l'Exotic World. La collection se développe suffisamment pour remplir toute la ferme.
 Fin 2005, le musée est temporairement fermé, pour inventaire et rénovations, à la suite du décès inattendu d'Arroyo et aux importants dégâts causés aux installations du musée, par les intempéries. Bien que le musée n'ait pas été ouvert au moment du concours annuel de Miss Monde Exotique en 2006, le concours a néanmoins lieu ailleurs, au Celebrity Theater, à Las Vegas. En 2006, le Burlesque Hall of Fame déménage de Helendale vers un espace temporaire dans le bâtiment des arts d'urgence de Las Vegas.
-Le Hall of Fame déménage dans des locaux permanents dans la rue principale, à Las Vegas, en avril 2018[1].
+Le Hall of Fame déménage dans des locaux permanents dans la rue principale, à Las Vegas, en avril 2018.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Légendes du burlesque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Burlesque Hall of Fame n'a pas de procédure d'intronisation officielle. Le musée a pour vocation de célébrer et d'honorer toute l'histoire du burlesque. Un prix de la « Légende vivante de l'année » est remis chaque année, pendant le week-end, du BHOF à un artiste qui a apporté une contribution significative à l'histoire du burlesque. Le BHOF décerne également un prix « Sassy Lassy » à une personne qui a contribué de manière significative à la promotion et à la préservation de l'art du burlesque.
 Parmi les lauréats de la légende vivante de l'année figurent :
@@ -621,7 +637,9 @@
           <t>Musée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection du musée Exotic World comprend des costumes, des accessoires, des affiches, des photographies, des photos publicitaires, des coupures de journaux et des affiches liées à des artistes burlesques célèbres comme Dita von Teese, Blaze Starr, Lili St-Cyr, Chesty Morgan, Candy Barr et Tempest Storm.
 Le musée comprend des éléments de costume et des accessoires tels que des boas en plumes, des éventails, des gants, des porte-jarretelles, des robes, des chaussures, des pâtes, des strings et des bijoux. Beaucoup de ces articles sont spécialement conçus pour être utilisés dans le cadre de stripteases.
@@ -654,9 +672,11 @@
           <t>Film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire du Burlesque Hall of Fame est le sujet du documentaire Exotic World &amp; the Burlesque Revival de 2010[3]. Dixie Evans apparaît dans le documentaire Behind the Burly Q (en) de Leslie Zemeckis.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire du Burlesque Hall of Fame est le sujet du documentaire Exotic World &amp; the Burlesque Revival de 2010. Dixie Evans apparaît dans le documentaire Behind the Burly Q (en) de Leslie Zemeckis.
 </t>
         </is>
       </c>
@@ -685,7 +705,9 @@
           <t>Miss Exotic World</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée organise le concours annuel de Miss Exotic World, le premier samedi de juin de chaque année. Chaque année, une artiste néo-burlesque est couronnée Miss Exotic World dans le cadre d'un concours souvent appelé Miss Amérique du burlesque. Les gagnants reçoivent à la fois le titre et un trophée.
 Après les célébrations annuelles du syndicat de la Ligue des danseurs exotiques, Dixie Evans lancé le concours de Miss Monde Exotique, en 1990, pour attirer les gens au musée. Elle attire l'attention en envoyant un communiqué de presse affirmant que « Lili St. Cyr, Tempest Storm, Blaze Starr et 30 autres anciens du burlesque seront tous invités à assister à cette réunion ». Bien que cela soit techniquement vrai, aucun de ces invités n'était présent cette année-là. Cependant, le communiqué a attiré l'attention de la presse sur le concours, qui a eu suffisamment de succès pour devenir un événement annuel.
